--- a/Final-New/WebContent/uploadFile/FullTest/Test1/read.xlsx
+++ b/Final-New/WebContent/uploadFile/FullTest/Test1/read.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\Test1\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11490" windowHeight="4635"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11496" windowHeight="4632"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,97 +30,97 @@
     <t>Part 7</t>
   </si>
   <si>
+    <t>reserve</t>
+  </si>
+  <si>
+    <t>appoint</t>
+  </si>
+  <si>
+    <t>require</t>
+  </si>
+  <si>
+    <t>attach</t>
+  </si>
+  <si>
+    <t>2. Some supervisors are reluctant to responsibilities beacse they know they will be held accountable if something goes wrong.</t>
+  </si>
+  <si>
+    <t>ask</t>
+  </si>
+  <si>
+    <t>encourage</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>delegate</t>
+  </si>
+  <si>
+    <t>permit</t>
+  </si>
+  <si>
+    <t>commit</t>
+  </si>
+  <si>
+    <t>transmit</t>
+  </si>
+  <si>
+    <t>submit</t>
+  </si>
+  <si>
+    <t>1. The building owner generally does not ------tenants to make renovations in their units.</t>
+  </si>
+  <si>
+    <t>2.  A group of the environmentalists ---- concerns about recent drastic environmetal change including temperature increases in Northern Canada and Russia.</t>
+  </si>
+  <si>
+    <t>request</t>
+  </si>
+  <si>
+    <t>left</t>
+  </si>
+  <si>
+    <t>understood</t>
+  </si>
+  <si>
+    <t>addressed</t>
+  </si>
+  <si>
+    <t>1. In order to ---- traffic on the roads, the Ministtry of Transportation has begun a campaign to encourage individuals to use public transportation.</t>
+  </si>
+  <si>
+    <t>alleviate</t>
+  </si>
+  <si>
+    <t>assist</t>
+  </si>
+  <si>
+    <t>deteriorate</t>
+  </si>
+  <si>
+    <t>remove</t>
+  </si>
+  <si>
+    <t>2. Diners are more likely to ---- restaurants the server excellent food and provide friendly service.</t>
+  </si>
+  <si>
+    <t>promote</t>
+  </si>
+  <si>
+    <t>nurture</t>
+  </si>
+  <si>
+    <t>patronize</t>
+  </si>
+  <si>
     <t>1. Those wishing to ----- a room at the hotel for the Asian Export Conference are urged to contact the travel agent as soon as possible.</t>
-  </si>
-  <si>
-    <t>reserve</t>
-  </si>
-  <si>
-    <t>appoint</t>
-  </si>
-  <si>
-    <t>require</t>
-  </si>
-  <si>
-    <t>attach</t>
-  </si>
-  <si>
-    <t>2. Some supervisors are reluctant to responsibilities beacse they know they will be held accountable if something goes wrong.</t>
-  </si>
-  <si>
-    <t>ask</t>
-  </si>
-  <si>
-    <t>encourage</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>delegate</t>
-  </si>
-  <si>
-    <t>permit</t>
-  </si>
-  <si>
-    <t>commit</t>
-  </si>
-  <si>
-    <t>transmit</t>
-  </si>
-  <si>
-    <t>submit</t>
-  </si>
-  <si>
-    <t>1. The building owner generally does not ------tenants to make renovations in their units.</t>
-  </si>
-  <si>
-    <t>2.  A group of the environmentalists ---- concerns about recent drastic environmetal change including temperature increases in Northern Canada and Russia.</t>
-  </si>
-  <si>
-    <t>request</t>
-  </si>
-  <si>
-    <t>left</t>
-  </si>
-  <si>
-    <t>understood</t>
-  </si>
-  <si>
-    <t>addressed</t>
-  </si>
-  <si>
-    <t>1. In order to ---- traffic on the roads, the Ministtry of Transportation has begun a campaign to encourage individuals to use public transportation.</t>
-  </si>
-  <si>
-    <t>alleviate</t>
-  </si>
-  <si>
-    <t>assist</t>
-  </si>
-  <si>
-    <t>deteriorate</t>
-  </si>
-  <si>
-    <t>remove</t>
-  </si>
-  <si>
-    <t>2. Diners are more likely to ---- restaurants the server excellent food and provide friendly service.</t>
-  </si>
-  <si>
-    <t>promote</t>
-  </si>
-  <si>
-    <t>nurture</t>
-  </si>
-  <si>
-    <t>patronize</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -157,10 +162,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -433,7 +441,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -444,177 +452,177 @@
   <dimension ref="A1:A33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="142.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="142.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
         <v>30</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
-        <v>31</v>
       </c>
     </row>
   </sheetData>
